--- a/biology/Zoologie/Epitonium_clathratulum/Epitonium_clathratulum.xlsx
+++ b/biology/Zoologie/Epitonium_clathratulum/Epitonium_clathratulum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Epitonium clathratulum est un gastéropode de la famille des Epitoniidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa coquille est semblable à celle des autres espèces d'Epitonium mais elle ne dépasse pas 12 mm de hauteur. Mince et brillante, elle compte environ onze verticilles qui forment une flèche à côtés droits. Chaque verticille possède jusqu'à 18-22 costae (fines lamelles verticales ne s'incurvant pas vers le haut de la flèche), n'établissant qu'un léger contact avec celles du verticille supérieur, mais aucun avec leurs voisines. Le dernier verticille occupe environ 40 % de la hauteur de la coquille et l'ouverture environ 25 % de cette dernière. La lèvre externe est peu ou pas tournée vers l'extérieur.
 </t>
@@ -542,7 +556,9 @@
           <t>Taille</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les individus de cette espèce peuvent mesurer jusqu'à 12 x 4 mm.
 </t>
@@ -573,7 +589,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Leur habitat est situé entre 30 et 100 m de profondeur.
 </t>
@@ -604,7 +622,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce s'étend de la Méditerranée occidentale à la Norvège. 
 </t>
